--- a/testdata/auto_test_case.xlsx
+++ b/testdata/auto_test_case.xlsx
@@ -1,215 +1,309 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>lqc_1</t>
+  </si>
+  <si>
+    <t>获取base64验证码</t>
+  </si>
+  <si>
+    <t>http://192.168.50.202:9999/test-api/code</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>casetitle</t>
+  </si>
+  <si>
+    <t>lqc_2</t>
+  </si>
+  <si>
+    <t>多个sheet页执行用例</t>
+  </si>
+  <si>
+    <t>https://admin.liqicloud.com/prod-api/qiyelibrary/crm/project/reportable</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
+  </si>
+  <si>
+    <t>projectId=91110108783249629Y&amp;sign=c5a01e1219c2749589cc19a320fd8f2d</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="26">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFCC00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF00FF00"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFFCC00"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF008000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00008000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FFCC00"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -530,184 +624,177 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,7 +1042,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -964,7 +1051,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -977,74 +1064,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1296,298 +1320,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col width="20.625" customWidth="1" style="4" min="1" max="2"/>
-    <col width="40.625" customWidth="1" style="3" min="3" max="3"/>
-    <col width="20.625" customWidth="1" style="4" min="4" max="4"/>
-    <col width="30.625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="40.625" customWidth="1" style="4" min="6" max="6"/>
-    <col width="20.625" customWidth="1" style="4" min="7" max="10"/>
-    <col width="9" customWidth="1" style="4" min="11" max="16384"/>
+    <col min="1" max="2" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="6" customWidth="1"/>
+    <col min="7" max="10" width="20.625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" s="8">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>casetitle</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>headers</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>msg</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tester</t>
-        </is>
+    <row r="1" ht="40" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>lqc_1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>发布会id查询</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>http://192.168.50.202:9999/test-api/code</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="6" t="n"/>
+    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
-      <c r="C3" s="0" t="n"/>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
-      <c r="F3" s="0" t="n"/>
-      <c r="G3" s="0" t="n"/>
-      <c r="H3" s="0" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="6" t="n"/>
+    <row r="3" s="2" customFormat="1" ht="40" customHeight="1" spans="1:13">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="4" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="5" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="6" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="7" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="8" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="9" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="10" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="11" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="12" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="13" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="14" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="15" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="16" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="17" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="18" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="19" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="20" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="21" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="22" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="23" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="24" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="25" ht="40" customHeight="1" s="8"/>
-    <row r="26" ht="40" customHeight="1" s="8"/>
-    <row r="27" ht="40" customHeight="1" s="8"/>
-    <row r="28" ht="40" customHeight="1" s="8"/>
-    <row r="29" ht="40" customHeight="1" s="8"/>
-    <row r="30" ht="40" customHeight="1" s="8"/>
-    <row r="31" ht="40" customHeight="1" s="8"/>
-    <row r="32" ht="40" customHeight="1" s="8"/>
-    <row r="33" ht="40" customHeight="1" s="8"/>
-    <row r="34" ht="40" customHeight="1" s="8"/>
-    <row r="35" ht="40" customHeight="1" s="8"/>
-    <row r="36" ht="40" customHeight="1" s="8"/>
-    <row r="37" ht="40" customHeight="1" s="8"/>
-    <row r="38" ht="40" customHeight="1" s="8"/>
-    <row r="39" ht="40" customHeight="1" s="8"/>
+    <row r="4" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="5" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="6" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="7" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="8" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="9" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="10" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="11" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="12" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="14" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" ht="40" customHeight="1"/>
+    <row r="25" ht="40" customHeight="1"/>
+    <row r="26" ht="40" customHeight="1"/>
+    <row r="27" ht="40" customHeight="1"/>
+    <row r="28" ht="40" customHeight="1"/>
+    <row r="29" ht="40" customHeight="1"/>
+    <row r="30" ht="40" customHeight="1"/>
+    <row r="31" ht="40" customHeight="1"/>
+    <row r="32" ht="40" customHeight="1"/>
+    <row r="33" ht="40" customHeight="1"/>
+    <row r="34" ht="40" customHeight="1"/>
+    <row r="35" ht="40" customHeight="1"/>
+    <row r="36" ht="40" customHeight="1"/>
+    <row r="37" ht="40" customHeight="1"/>
+    <row r="38" ht="40" customHeight="1"/>
+    <row r="39" ht="40" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:J2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="8">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>casetitle</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>headers</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>msg</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tester</t>
-        </is>
+    <row r="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" ht="148.5" customHeight="1" s="8">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>lqc_2</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>发布会id查询</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>https://admin.liqicloud.com/prod-api/qiyelibrary/crm/project/reportable</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>projectId=91110108783249629Y&amp;sign=c5a01e1219c2749589cc19a320fd8f2d</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
+    <row r="2" ht="148.5" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>